--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value339.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value339.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.115056214666945</v>
+        <v>0.7942447662353516</v>
       </c>
       <c r="B1">
-        <v>3.749709871180322</v>
+        <v>1.491762042045593</v>
       </c>
       <c r="C1">
-        <v>3.259314217389388</v>
+        <v>5.774016380310059</v>
       </c>
       <c r="D1">
-        <v>1.22317725426659</v>
+        <v>3.13930082321167</v>
       </c>
       <c r="E1">
-        <v>0.8513903809598011</v>
+        <v>1.475869536399841</v>
       </c>
     </row>
   </sheetData>
